--- a/Assets/Database/SheetSource.xlsx
+++ b/Assets/Database/SheetSource.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tqhie\Unity Projects\Where-to-2\Assets\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9F6009-A124-4824-B887-F72B84B2FC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE7A8228-40E4-475E-ADDD-4F2C047286AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0E7384ED-7C35-4E8F-B735-540A4F72621F}"/>
   </bookViews>
   <sheets>
     <sheet name="NPCAttribute" sheetId="1" r:id="rId1"/>
-    <sheet name="NPCSpawnSchedule" sheetId="2" r:id="rId2"/>
+    <sheet name="SpawnSchedule" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="NPC_IDs">NPCTable[ID]</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -99,10 +99,7 @@
     <t>RANDOM</t>
   </si>
   <si>
-    <t>map_factory</t>
-  </si>
-  <si>
-    <t>map_walterapt</t>
+    <t>map_random</t>
   </si>
 </sst>
 </file>
@@ -592,17 +589,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1013,7 +1010,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1106,14 +1103,14 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="5"/>
-    <col min="2" max="2" width="8.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="8.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="3" customWidth="1"/>
     <col min="4" max="4" width="19.77734375" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" customWidth="1"/>
@@ -1123,172 +1120,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="6"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2</v>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>3.1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>3.3</v>
-      </c>
-      <c r="C5" s="5">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>6.1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>6.2</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>6.3</v>
-      </c>
-      <c r="C7" s="5">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G1:G2"/>
@@ -1298,11 +1207,8 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:F2"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{C8199317-27BB-4B74-98D0-0D3CC4289E62}">
-      <formula1>NPC_IDs</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16" xr:uid="{577FD561-5596-414A-A03F-FE3C769F9F4B}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576 F16" xr:uid="{C8199317-27BB-4B74-98D0-0D3CC4289E62}">
       <formula1>NPC_IDs</formula1>
     </dataValidation>
   </dataValidations>
